--- a/biology/Neurosciences/Joseph_Erlanger/Joseph_Erlanger.xlsx
+++ b/biology/Neurosciences/Joseph_Erlanger/Joseph_Erlanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Erlanger (5 janvier 1874 à San Francisco, Californie - 5 décembre 1965 à Saint Louis, Missouri, États-Unis) est un médecin et biologiste américain. Herbert Gasser et lui reçoivent le prix Nobel de physiologie ou médecine en 1944 pour leurs travaux sur les fibres nerveuses[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Erlanger (5 janvier 1874 à San Francisco, Californie - 5 décembre 1965 à Saint Louis, Missouri, États-Unis) est un médecin et biologiste américain. Herbert Gasser et lui reçoivent le prix Nobel de physiologie ou médecine en 1944 pour leurs travaux sur les fibres nerveuses.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Erlanger obtient une maitrise de chimie de l'Université de Californie à Berkeley et finit ses études de médecine à Baltimore à l'Université Johns-Hopkins. Il fait sa carrière de médecine dans cette dernière, mais travaille également à l'Université Washington à Saint-Louis.
-En 1944, Herbert Gasser et lui sont lauréats du prix Nobel de physiologie ou médecine « pour leurs découvertes sur les fonctions hautement différenciées d'une fibre nerveuse isolée[1] ».
+En 1944, Herbert Gasser et lui sont lauréats du prix Nobel de physiologie ou médecine « pour leurs découvertes sur les fonctions hautement différenciées d'une fibre nerveuse isolée ».
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
